--- a/GL70_Script_CreateMultipleManualJournalBatches_21B.xlsx
+++ b/GL70_Script_CreateMultipleManualJournalBatches_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFEC578-3CFF-4447-A2D6-EF5ADFD927CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B32979-F94A-464B-9B17-8C2C9E321719}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateJournalBatches" sheetId="30" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreateJournalBatches!$A$1:$N$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreateJournalBatches!$A$1:$N$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="588">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -1584,6 +1584,222 @@
   </si>
   <si>
     <t>Step 138</t>
+  </si>
+  <si>
+    <t>Manage Journal Page</t>
+  </si>
+  <si>
+    <t>TasksPanelDivValidation</t>
+  </si>
+  <si>
+    <t>Explicit wait for ManageJournals</t>
+  </si>
+  <si>
+    <t>ManageJournalsValidation</t>
+  </si>
+  <si>
+    <t>Click on ManageJournals</t>
+  </si>
+  <si>
+    <t>Clicked on ManageJournals</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Explicit wait for Basic</t>
+  </si>
+  <si>
+    <t>BasicValidation</t>
+  </si>
+  <si>
+    <t>Click on Basic</t>
+  </si>
+  <si>
+    <t>Clicked on Basic</t>
+  </si>
+  <si>
+    <t>Explicit wait for Advanced</t>
+  </si>
+  <si>
+    <t>AdvancedValidation</t>
+  </si>
+  <si>
+    <t>Explicit wait for EnterBatch</t>
+  </si>
+  <si>
+    <t>EnterJournalNameValidation</t>
+  </si>
+  <si>
+    <t>Enter Journal Name</t>
+  </si>
+  <si>
+    <t>Journal Name Entered</t>
+  </si>
+  <si>
+    <t>Entered Journal Name</t>
+  </si>
+  <si>
+    <t>Tab Key Enter</t>
+  </si>
+  <si>
+    <t>Tab Key Entered</t>
+  </si>
+  <si>
+    <t>AccountingPeriodValidation</t>
+  </si>
+  <si>
+    <t>Enter Accounting Period</t>
+  </si>
+  <si>
+    <t>Entered Accounting Period</t>
+  </si>
+  <si>
+    <t>SearchValidation</t>
+  </si>
+  <si>
+    <t>Click on Search</t>
+  </si>
+  <si>
+    <t>Clicked on search</t>
+  </si>
+  <si>
+    <t>Verify Text</t>
+  </si>
+  <si>
+    <t>Verified Text</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>VerifySearchJournalValidation</t>
+  </si>
+  <si>
+    <t>Explicit wait for Done</t>
+  </si>
+  <si>
+    <t>DoneValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Done </t>
+  </si>
+  <si>
+    <t>Clicked on Done</t>
+  </si>
+  <si>
+    <t>Step 143</t>
+  </si>
+  <si>
+    <t>Step 144</t>
+  </si>
+  <si>
+    <t>Step 145</t>
+  </si>
+  <si>
+    <t>Step 146</t>
+  </si>
+  <si>
+    <t>Step 147</t>
+  </si>
+  <si>
+    <t>Step 148</t>
+  </si>
+  <si>
+    <t>Step 149</t>
+  </si>
+  <si>
+    <t>Step 150</t>
+  </si>
+  <si>
+    <t>Step 151</t>
+  </si>
+  <si>
+    <t>Step 152</t>
+  </si>
+  <si>
+    <t>Step 153</t>
+  </si>
+  <si>
+    <t>Step 154</t>
+  </si>
+  <si>
+    <t>Step 155</t>
+  </si>
+  <si>
+    <t>Step 156</t>
+  </si>
+  <si>
+    <t>Step 157</t>
+  </si>
+  <si>
+    <t>Step 158</t>
+  </si>
+  <si>
+    <t>Step 159</t>
+  </si>
+  <si>
+    <t>Step 160</t>
+  </si>
+  <si>
+    <t>Step 161</t>
+  </si>
+  <si>
+    <t>Step 162</t>
+  </si>
+  <si>
+    <t>Step 163</t>
+  </si>
+  <si>
+    <t>Step 164</t>
+  </si>
+  <si>
+    <t>Step 165</t>
+  </si>
+  <si>
+    <t>Step 166</t>
+  </si>
+  <si>
+    <t>Step 167</t>
+  </si>
+  <si>
+    <t>Step 168</t>
+  </si>
+  <si>
+    <t>Step 169</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'AT1:_ATp:t1:0:commandLink3')]</t>
+  </si>
+  <si>
+    <t>EnterJournalBatchValidation</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value10::content')]</t>
+  </si>
+  <si>
+    <t>//span[label[text()=' Accounting Period']]/input</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value00::content')]</t>
+  </si>
+  <si>
+    <t>//a/span[text()='ne']</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,':pt1:ap1:queryP::mode')]</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,'pt1:ap1:queryP::mode')]</t>
+  </si>
+  <si>
+    <t>TasksValidation</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,':pt1:ap1:queryP::search')]</t>
+  </si>
+  <si>
+    <t>//a[text()='Manage Journals']</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2189,6 +2405,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -10036,7 +10263,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -10057,6 +10284,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="7828" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7829">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17889,7 +18117,587 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="204">
+  <dxfs count="262">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -20274,10 +21082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O144"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -20546,9 +21354,6 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="B8" s="2" t="s">
         <v>303</v>
       </c>
@@ -20583,9 +21388,6 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="B9" s="2" t="s">
         <v>303</v>
       </c>
@@ -20615,9 +21417,6 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="B10" s="2" t="s">
         <v>303</v>
       </c>
@@ -20652,9 +21451,6 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="B11" s="2" t="s">
         <v>303</v>
       </c>
@@ -20682,9 +21478,6 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="B12" s="2" t="s">
         <v>303</v>
       </c>
@@ -20719,9 +21512,6 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="B13" s="2" t="s">
         <v>303</v>
       </c>
@@ -24891,17 +25681,20 @@
       <c r="O135" s="4"/>
     </row>
     <row r="136" spans="1:15">
+      <c r="A136" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B136" s="5" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>512</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>20</v>
@@ -24910,32 +25703,33 @@
         <v>29</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K136" s="2"/>
-      <c r="M136" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O136" s="4"/>
+        <v>458</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="137" spans="1:15">
+      <c r="A137" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B137" s="5" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>513</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>20</v>
@@ -24944,32 +25738,27 @@
         <v>17</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K137" s="2"/>
-      <c r="M137" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O137" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="138" spans="1:15">
+      <c r="A138" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B138" s="5" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>514</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>20</v>
@@ -24978,564 +25767,1583 @@
         <v>29</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>123</v>
+        <v>517</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K138" s="2"/>
-      <c r="M138" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O138" s="4"/>
+        <v>458</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="139" spans="1:15">
+      <c r="A139" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B139" s="5" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>515</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>173</v>
+        <v>518</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>123</v>
+        <v>519</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K139" s="2"/>
-      <c r="M139" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O139" s="4"/>
+        <v>458</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="140" spans="1:15">
+      <c r="A140" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B140" s="5" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>175</v>
+        <v>520</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>176</v>
+        <v>521</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K140" s="2"/>
-      <c r="M140" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O140" s="4"/>
+        <v>519</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="141" spans="1:15">
+      <c r="A141" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B141" s="5" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>410</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>177</v>
+        <v>471</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>178</v>
+        <v>522</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H141" s="5"/>
       <c r="I141" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K141" s="2"/>
-      <c r="M141" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O141" s="4"/>
+        <v>460</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="142" spans="1:15">
+      <c r="A142" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B142" s="5" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>411</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>179</v>
+        <v>523</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>127</v>
+        <v>524</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K142" s="2"/>
-      <c r="M142" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O142" s="4"/>
+        <v>458</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="143" spans="1:15">
+      <c r="A143" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="B143" s="5" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>412</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H146" s="5"/>
+      <c r="I146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K148" s="6"/>
+      <c r="M148" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D149" t="s">
+        <v>534</v>
+      </c>
+      <c r="E149" t="s">
+        <v>535</v>
+      </c>
+      <c r="F149" t="s">
+        <v>88</v>
+      </c>
+      <c r="G149" t="s">
+        <v>231</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I149"/>
+      <c r="J149" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H150" s="5"/>
+      <c r="I150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K152" s="6"/>
+      <c r="M152" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D153" t="s">
+        <v>534</v>
+      </c>
+      <c r="E153" t="s">
+        <v>535</v>
+      </c>
+      <c r="F153" t="s">
+        <v>88</v>
+      </c>
+      <c r="G153" t="s">
+        <v>231</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="I153"/>
+      <c r="J153" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H154" s="5"/>
+      <c r="I154" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K156" s="2"/>
+      <c r="M156" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H157" s="5"/>
+      <c r="I157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K158" s="2"/>
+      <c r="M158" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H159" s="5"/>
+      <c r="I159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" s="2"/>
+      <c r="M161" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="B163" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K163" s="2"/>
+      <c r="M163" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O163" s="4"/>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="B164" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K164" s="2"/>
+      <c r="M164" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O164" s="4"/>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="B165" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K165" s="2"/>
+      <c r="M165" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O165" s="4"/>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="B166" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K166" s="2"/>
+      <c r="M166" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O166" s="4"/>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="B167" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K167" s="2"/>
+      <c r="M167" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O167" s="4"/>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="B168" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K168" s="2"/>
+      <c r="M168" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O168" s="4"/>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="B169" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K169" s="2"/>
+      <c r="M169" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O169" s="4"/>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="B170" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="G170" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I143" s="2" t="s">
+      <c r="I170" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="J170" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K143" s="2"/>
-      <c r="O143" s="4"/>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="D144" s="5"/>
+      <c r="K170" s="2"/>
+      <c r="O170" s="4"/>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="D171" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="H14">
-    <cfRule type="duplicateValues" dxfId="203" priority="1485"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="1531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="duplicateValues" dxfId="202" priority="1413"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="1459"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="201" priority="1382"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="duplicateValues" dxfId="200" priority="1358"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="1404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132">
-    <cfRule type="duplicateValues" dxfId="199" priority="1241"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="1287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="198" priority="1234"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="197" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="1279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="196" priority="1114"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="1160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H125">
-    <cfRule type="duplicateValues" dxfId="195" priority="1110"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="1156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="duplicateValues" dxfId="194" priority="1108"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="1154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="duplicateValues" dxfId="193" priority="1093"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H127">
-    <cfRule type="duplicateValues" dxfId="192" priority="1091"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133">
-    <cfRule type="duplicateValues" dxfId="191" priority="1044"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="1090"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="duplicateValues" dxfId="190" priority="1042"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1088"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="duplicateValues" dxfId="189" priority="1037"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1083"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="duplicateValues" dxfId="188" priority="1038"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="1039"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="1084"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1085"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="duplicateValues" dxfId="186" priority="1034"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1080"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="duplicateValues" dxfId="185" priority="1035"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="1036"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1081"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1082"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="duplicateValues" dxfId="183" priority="1033"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1079"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="duplicateValues" dxfId="182" priority="1028"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1074"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H128">
-    <cfRule type="duplicateValues" dxfId="181" priority="1029"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="1030"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1075"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1076"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="179" priority="950"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="996"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77">
-    <cfRule type="duplicateValues" dxfId="178" priority="931"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="977"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="177" priority="928"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="974"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="176" priority="929"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="930"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="975"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="976"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="174" priority="925"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="971"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="173" priority="926"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="927"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="972"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="973"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="171" priority="922"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="968"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="170" priority="923"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="924"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="969"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="970"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76">
-    <cfRule type="duplicateValues" dxfId="168" priority="919"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="965"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76">
-    <cfRule type="duplicateValues" dxfId="167" priority="920"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="921"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="966"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="967"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129">
-    <cfRule type="duplicateValues" dxfId="165" priority="912"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="958"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="164" priority="710"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="756"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="163" priority="704"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="750"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="162" priority="705"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="706"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="751"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="752"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112">
-    <cfRule type="duplicateValues" dxfId="160" priority="563"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="609"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="duplicateValues" dxfId="159" priority="561"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="607"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106">
-    <cfRule type="duplicateValues" dxfId="158" priority="549"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="595"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107">
-    <cfRule type="duplicateValues" dxfId="157" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="duplicateValues" dxfId="156" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="duplicateValues" dxfId="155" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121">
-    <cfRule type="duplicateValues" dxfId="154" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="384"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="duplicateValues" dxfId="153" priority="331"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118">
-    <cfRule type="duplicateValues" dxfId="152" priority="332"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="333"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="150" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="149" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="148" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="147" priority="295"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="342"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="145" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="144" priority="292"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="142" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="336"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="141" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="140" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="333"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="138" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="331"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="137" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="duplicateValues" dxfId="136" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="duplicateValues" dxfId="135" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="133" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="132" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="duplicateValues" dxfId="130" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="duplicateValues" dxfId="129" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="127" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="126" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="duplicateValues" dxfId="124" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="duplicateValues" dxfId="123" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="duplicateValues" dxfId="121" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="duplicateValues" dxfId="120" priority="180"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="duplicateValues" dxfId="118" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="duplicateValues" dxfId="117" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="duplicateValues" dxfId="115" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="duplicateValues" dxfId="114" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93">
-    <cfRule type="duplicateValues" dxfId="112" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="duplicateValues" dxfId="111" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="duplicateValues" dxfId="110" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="108" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="107" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="duplicateValues" dxfId="105" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="duplicateValues" dxfId="104" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="duplicateValues" dxfId="102" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105">
-    <cfRule type="duplicateValues" dxfId="101" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="99" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="98" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="97" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="95" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="94" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="92" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="91" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="90" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="89" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="duplicateValues" dxfId="88" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="87" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="86" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="85" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="84" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="82" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="81" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="79" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="78" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="77" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="76" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="74" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="73" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="duplicateValues" dxfId="72" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="71" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="duplicateValues" dxfId="70" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="69" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="68" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="67" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="65" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="64" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="62" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="61" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="60" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136">
+    <cfRule type="duplicateValues" dxfId="116" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H141">
+    <cfRule type="duplicateValues" dxfId="115" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H141">
+    <cfRule type="duplicateValues" dxfId="114" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
+    <cfRule type="duplicateValues" dxfId="112" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H146">
+    <cfRule type="duplicateValues" dxfId="111" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H146">
+    <cfRule type="duplicateValues" dxfId="110" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H157">
+    <cfRule type="duplicateValues" dxfId="108" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H157">
+    <cfRule type="duplicateValues" dxfId="107" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H150">
+    <cfRule type="duplicateValues" dxfId="105" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H150">
+    <cfRule type="duplicateValues" dxfId="104" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J153">
+    <cfRule type="duplicateValues" dxfId="102" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154">
+    <cfRule type="duplicateValues" dxfId="101" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154">
+    <cfRule type="duplicateValues" dxfId="100" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H159">
+    <cfRule type="duplicateValues" dxfId="98" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H159">
+    <cfRule type="duplicateValues" dxfId="97" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H162">
+    <cfRule type="duplicateValues" dxfId="95" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H160">
+    <cfRule type="duplicateValues" dxfId="94" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H160">
+    <cfRule type="duplicateValues" dxfId="93" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H161">
+    <cfRule type="duplicateValues" dxfId="91" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H161">
+    <cfRule type="duplicateValues" dxfId="90" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H144">
+    <cfRule type="duplicateValues" dxfId="88" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H144">
+    <cfRule type="duplicateValues" dxfId="87" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H143">
+    <cfRule type="duplicateValues" dxfId="85" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H143">
+    <cfRule type="duplicateValues" dxfId="84" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H142">
+    <cfRule type="duplicateValues" dxfId="82" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H142">
+    <cfRule type="duplicateValues" dxfId="81" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H140">
+    <cfRule type="duplicateValues" dxfId="79" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H140">
+    <cfRule type="duplicateValues" dxfId="78" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H139">
+    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H139">
+    <cfRule type="duplicateValues" dxfId="75" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138">
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138">
+    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G147 F153:G1048576 F148 F152 F149:G151" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation showInputMessage="1" sqref="I2:I3 I8" xr:uid="{D8F277C8-3CD4-46EB-AED7-38859E989603}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25547,10 +27355,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -27228,148 +29036,330 @@
         <v>20</v>
       </c>
     </row>
+    <row r="121" spans="1:4" s="9" customFormat="1">
+      <c r="A121" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="9" customFormat="1">
+      <c r="A122" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="9" customFormat="1">
+      <c r="A123" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="9" customFormat="1">
+      <c r="A124" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="9" customFormat="1">
+      <c r="A125" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="9" customFormat="1">
+      <c r="A126" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="9" customFormat="1">
+      <c r="A127" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="9" customFormat="1">
+      <c r="A128" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="9" customFormat="1">
+      <c r="A129" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="9" customFormat="1">
+      <c r="A130" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="9" customFormat="1">
+      <c r="A131" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D9">
     <sortCondition ref="D2:D9"/>
   </sortState>
-  <conditionalFormatting sqref="A120:A1048576 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A94">
-    <cfRule type="duplicateValues" dxfId="58" priority="137"/>
+  <conditionalFormatting sqref="A120 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A94 A132:A1048576">
+    <cfRule type="duplicateValues" dxfId="70" priority="149"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A1048576 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A94">
-    <cfRule type="duplicateValues" dxfId="57" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="141"/>
+  <conditionalFormatting sqref="A120 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A94 A132:A1048576">
+    <cfRule type="duplicateValues" dxfId="69" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="67" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="66" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A39">
+    <cfRule type="duplicateValues" dxfId="64" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A39">
+    <cfRule type="duplicateValues" dxfId="63" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="61" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A56">
+    <cfRule type="duplicateValues" dxfId="58" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A56">
+    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
     <cfRule type="duplicateValues" dxfId="55" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
+  <conditionalFormatting sqref="A62">
     <cfRule type="duplicateValues" dxfId="54" priority="55"/>
     <cfRule type="duplicateValues" dxfId="53" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A39">
-    <cfRule type="duplicateValues" dxfId="52" priority="208"/>
+  <conditionalFormatting sqref="A63:A70">
+    <cfRule type="duplicateValues" dxfId="52" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A39">
-    <cfRule type="duplicateValues" dxfId="51" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="211"/>
+  <conditionalFormatting sqref="A63:A70">
+    <cfRule type="duplicateValues" dxfId="51" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="duplicateValues" dxfId="49" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A72:A73">
     <cfRule type="duplicateValues" dxfId="48" priority="49"/>
     <cfRule type="duplicateValues" dxfId="47" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A56">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="46" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A56">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="45" priority="46"/>
     <cfRule type="duplicateValues" dxfId="44" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A81:A82">
     <cfRule type="duplicateValues" dxfId="43" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A81:A82">
     <cfRule type="duplicateValues" dxfId="42" priority="43"/>
     <cfRule type="duplicateValues" dxfId="41" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A70">
+  <conditionalFormatting sqref="A91">
     <cfRule type="duplicateValues" dxfId="40" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A70">
+  <conditionalFormatting sqref="A91">
     <cfRule type="duplicateValues" dxfId="39" priority="40"/>
     <cfRule type="duplicateValues" dxfId="38" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A73">
+  <conditionalFormatting sqref="A92">
     <cfRule type="duplicateValues" dxfId="37" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A73">
+  <conditionalFormatting sqref="A92">
     <cfRule type="duplicateValues" dxfId="36" priority="37"/>
     <cfRule type="duplicateValues" dxfId="35" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="34" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="33" priority="34"/>
     <cfRule type="duplicateValues" dxfId="32" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A82">
+  <conditionalFormatting sqref="A95">
     <cfRule type="duplicateValues" dxfId="31" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:A82">
+  <conditionalFormatting sqref="A95">
     <cfRule type="duplicateValues" dxfId="30" priority="31"/>
     <cfRule type="duplicateValues" dxfId="29" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
+  <conditionalFormatting sqref="A96">
     <cfRule type="duplicateValues" dxfId="28" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
+  <conditionalFormatting sqref="A96">
     <cfRule type="duplicateValues" dxfId="27" priority="28"/>
     <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="A113">
     <cfRule type="duplicateValues" dxfId="25" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="A113">
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
     <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="A114">
     <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="A114">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
     <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
+  <conditionalFormatting sqref="A116">
     <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
+  <conditionalFormatting sqref="A116">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
     <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
+  <conditionalFormatting sqref="A115">
     <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
+  <conditionalFormatting sqref="A115">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
     <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:A127">
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:A127">
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/GL70_Script_CreateMultipleManualJournalBatches_21B.xlsx
+++ b/GL70_Script_CreateMultipleManualJournalBatches_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B32979-F94A-464B-9B17-8C2C9E321719}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F2C5F8-4C96-4E60-9F0F-69D6BB497003}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21085,7 +21085,7 @@
   <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>

--- a/GL70_Script_CreateMultipleManualJournalBatches_21B.xlsx
+++ b/GL70_Script_CreateMultipleManualJournalBatches_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F2C5F8-4C96-4E60-9F0F-69D6BB497003}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25214A52-E9A3-4E47-B6D2-80AFC7F9881E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateJournalBatches" sheetId="30" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreateJournalBatches!$A$1:$N$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreateJournalBatches!$A$1:$N$163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="583">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -1403,9 +1403,6 @@
     <t>//a[span[text()='Detach']]</t>
   </si>
   <si>
-    <t>//table[@summary='Journal Lines']/tbody/tr[1]/td[1]</t>
-  </si>
-  <si>
     <t>CHANGE HISTORY</t>
   </si>
   <si>
@@ -1466,9 +1463,6 @@
     <t>//*[contains(@id,'showLessLedgerCLOV:sis1:is1::content')]</t>
   </si>
   <si>
-    <t>//*[@id="pt1:_FOr1:1:_FONSr2:0:MAnt2:1:pt1:ap1:jeLineAppTable:_ATp:t3::db"]/table/tbody/tr[2]/td[4]</t>
-  </si>
-  <si>
     <t>//*[contains(@id,'jeLineAppTable:_ATp:t3:1:accountCS::content')]</t>
   </si>
   <si>
@@ -1730,6 +1724,39 @@
     <t>Step 156</t>
   </si>
   <si>
+    <t>//*[contains(@id,'AT1:_ATp:t1:0:commandLink3')]</t>
+  </si>
+  <si>
+    <t>EnterJournalBatchValidation</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value10::content')]</t>
+  </si>
+  <si>
+    <t>//span[label[text()=' Accounting Period']]/input</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'queryP:value00::content')]</t>
+  </si>
+  <si>
+    <t>//a/span[text()='ne']</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,':pt1:ap1:queryP::mode')]</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,'pt1:ap1:queryP::mode')]</t>
+  </si>
+  <si>
+    <t>TasksValidation</t>
+  </si>
+  <si>
+    <t>//button[contains(@id,':pt1:ap1:queryP::search')]</t>
+  </si>
+  <si>
+    <t>//a[text()='Manage Journals']</t>
+  </si>
+  <si>
     <t>Step 157</t>
   </si>
   <si>
@@ -1748,58 +1775,16 @@
     <t>Step 162</t>
   </si>
   <si>
-    <t>Step 163</t>
-  </si>
-  <si>
-    <t>Step 164</t>
-  </si>
-  <si>
-    <t>Step 165</t>
-  </si>
-  <si>
-    <t>Step 166</t>
-  </si>
-  <si>
-    <t>Step 167</t>
-  </si>
-  <si>
-    <t>Step 168</t>
-  </si>
-  <si>
-    <t>Step 169</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'AT1:_ATp:t1:0:commandLink3')]</t>
-  </si>
-  <si>
-    <t>EnterJournalBatchValidation</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'queryP:value10::content')]</t>
-  </si>
-  <si>
-    <t>//span[label[text()=' Accounting Period']]/input</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'queryP:value00::content')]</t>
-  </si>
-  <si>
-    <t>//a/span[text()='ne']</t>
-  </si>
-  <si>
-    <t>//button[contains(@id,':pt1:ap1:queryP::mode')]</t>
-  </si>
-  <si>
-    <t>//button[contains(@id,'pt1:ap1:queryP::mode')]</t>
-  </si>
-  <si>
-    <t>TasksValidation</t>
-  </si>
-  <si>
-    <t>//button[contains(@id,':pt1:ap1:queryP::search')]</t>
-  </si>
-  <si>
-    <t>//a[text()='Manage Journals']</t>
+    <t>//*[contains(@id,'jeLineAppTable:_ATp:t3:2:j_id118')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'jeLineAppTable:_ATp:t3:3:j_id118')]</t>
+  </si>
+  <si>
+    <t>AccountLineCreditJor1</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ATp:t3:1:j_id118')]</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1798,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2021,6 +2006,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="48">
@@ -10263,7 +10254,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -10285,6 +10276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="7828" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7829">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -18117,167 +18109,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="262">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="246">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -21082,10 +20914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O171"/>
+  <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -21148,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O1" s="11"/>
     </row>
@@ -21314,7 +21146,7 @@
         <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K6" s="2"/>
       <c r="M6" s="2" t="s">
@@ -21361,10 +21193,10 @@
         <v>310</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>20</v>
@@ -21373,13 +21205,13 @@
         <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K8" s="2"/>
       <c r="M8" s="2" t="s">
@@ -21395,10 +21227,10 @@
         <v>311</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>20</v>
@@ -21407,7 +21239,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I9" s="2"/>
       <c r="K9" s="2"/>
@@ -21442,7 +21274,7 @@
         <v>55</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="2" t="s">
@@ -21503,7 +21335,7 @@
         <v>55</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12" s="2" t="s">
@@ -21567,7 +21399,7 @@
         <v>55</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>155</v>
@@ -21633,7 +21465,7 @@
         <v>55</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>155</v>
@@ -21669,7 +21501,7 @@
         <v>55</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>155</v>
@@ -21735,7 +21567,7 @@
         <v>55</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>155</v>
@@ -21975,7 +21807,7 @@
         <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>155</v>
@@ -21993,10 +21825,10 @@
         <v>334</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>417</v>
@@ -22008,7 +21840,7 @@
         <v>55</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K27" s="2"/>
       <c r="M27" s="2" t="s">
@@ -22024,7 +21856,7 @@
         <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>95</v>
@@ -22054,7 +21886,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>80</v>
@@ -22091,7 +21923,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>83</v>
@@ -22128,7 +21960,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>232</v>
@@ -22163,7 +21995,7 @@
         <v>60</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>98</v>
@@ -22193,7 +22025,7 @@
         <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>91</v>
@@ -22228,7 +22060,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>232</v>
@@ -22243,7 +22075,7 @@
         <v>231</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
@@ -22263,13 +22095,13 @@
         <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>417</v>
@@ -22281,7 +22113,7 @@
         <v>55</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K35" s="2"/>
       <c r="M35" s="2" t="s">
@@ -22297,7 +22129,7 @@
         <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>98</v>
@@ -22327,7 +22159,7 @@
         <v>60</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>100</v>
@@ -22364,7 +22196,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>232</v>
@@ -22399,13 +22231,13 @@
         <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>417</v>
@@ -22417,7 +22249,7 @@
         <v>55</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K39" s="2"/>
       <c r="M39" s="2" t="s">
@@ -22433,7 +22265,7 @@
         <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>160</v>
@@ -22454,7 +22286,7 @@
         <v>55</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>155</v>
@@ -22469,7 +22301,7 @@
         <v>60</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>103</v>
@@ -22499,13 +22331,13 @@
         <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>417</v>
@@ -22517,7 +22349,7 @@
         <v>55</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K42" s="2"/>
       <c r="M42" s="2" t="s">
@@ -22533,7 +22365,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>105</v>
@@ -22570,13 +22402,13 @@
         <v>60</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>417</v>
@@ -22588,7 +22420,7 @@
         <v>55</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K44" s="2"/>
       <c r="M44" s="2" t="s">
@@ -22604,7 +22436,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>133</v>
@@ -22625,7 +22457,7 @@
         <v>55</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>155</v>
@@ -22640,7 +22472,7 @@
         <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>134</v>
@@ -22670,13 +22502,13 @@
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>417</v>
@@ -22688,7 +22520,7 @@
         <v>55</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K47" s="2"/>
       <c r="M47" s="2" t="s">
@@ -22744,10 +22576,10 @@
         <v>336</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>417</v>
@@ -22759,7 +22591,7 @@
         <v>55</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K49" s="2"/>
       <c r="M49" s="2" t="s">
@@ -22823,13 +22655,13 @@
         <v>29</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>155</v>
@@ -22844,7 +22676,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>103</v>
@@ -22859,7 +22691,7 @@
         <v>17</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>473</v>
+        <v>581</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>155</v>
@@ -22877,10 +22709,10 @@
         <v>339</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>417</v>
@@ -22892,7 +22724,7 @@
         <v>55</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K53" s="2"/>
       <c r="M53" s="2" t="s">
@@ -22908,7 +22740,7 @@
         <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>103</v>
@@ -22923,7 +22755,7 @@
         <v>280</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>155</v>
@@ -22953,7 +22785,7 @@
         <v>54</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>55</v>
@@ -22978,10 +22810,10 @@
         <v>341</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>417</v>
@@ -23012,24 +22844,26 @@
         <v>342</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>418</v>
+        <v>162</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="K57" s="2"/>
+        <v>458</v>
+      </c>
       <c r="M57" s="2" t="s">
         <v>155</v>
       </c>
@@ -23046,25 +22880,19 @@
         <v>343</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>28</v>
+        <v>163</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>155</v>
@@ -23082,26 +22910,30 @@
         <v>344</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>163</v>
+        <v>470</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K59" s="2"/>
       <c r="M59" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" ht="14.5" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>197</v>
       </c>
@@ -23112,30 +22944,33 @@
         <v>345</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>471</v>
+        <v>165</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>418</v>
+        <v>166</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K60" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="K60" s="6"/>
       <c r="M60" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="14.5" customHeight="1">
+    <row r="61" spans="1:15">
       <c r="A61" s="2" t="s">
         <v>197</v>
       </c>
@@ -23146,27 +22981,23 @@
         <v>346</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J61" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K61" s="6"/>
+        <v>232</v>
+      </c>
       <c r="M61" s="2" t="s">
         <v>155</v>
       </c>
@@ -23183,24 +23014,25 @@
         <v>347</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>134</v>
+        <v>470</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>145</v>
+        <v>470</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M62" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="M62" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O62" s="4"/>
@@ -23216,24 +23048,26 @@
         <v>348</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>418</v>
+        <v>149</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K63" s="2"/>
+        <v>458</v>
+      </c>
       <c r="M63" s="12" t="s">
         <v>155</v>
       </c>
@@ -23250,25 +23084,19 @@
         <v>349</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>28</v>
+        <v>150</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="M64" s="12" t="s">
         <v>155</v>
@@ -23286,19 +23114,25 @@
         <v>350</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>148</v>
+        <v>29</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="M65" s="12" t="s">
         <v>155</v>
@@ -23316,26 +23150,24 @@
         <v>351</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>262</v>
+        <v>470</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>458</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="K66" s="2"/>
       <c r="M66" s="12" t="s">
         <v>155</v>
       </c>
@@ -23352,24 +23184,26 @@
         <v>352</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>418</v>
+        <v>198</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K67" s="2"/>
+        <v>458</v>
+      </c>
       <c r="M67" s="12" t="s">
         <v>155</v>
       </c>
@@ -23386,25 +23220,19 @@
         <v>353</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>28</v>
+        <v>199</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="M68" s="12" t="s">
         <v>155</v>
@@ -23422,20 +23250,24 @@
         <v>354</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>199</v>
+        <v>470</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>157</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K69" s="2"/>
       <c r="M69" s="12" t="s">
         <v>155</v>
       </c>
@@ -23451,25 +23283,27 @@
       <c r="C70" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>418</v>
+      <c r="D70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="K70" s="2"/>
+        <v>458</v>
+      </c>
       <c r="M70" s="12" t="s">
         <v>155</v>
       </c>
@@ -23486,25 +23320,19 @@
         <v>356</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="M71" s="12" t="s">
         <v>155</v>
@@ -23522,20 +23350,27 @@
         <v>357</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="I72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K72" s="6"/>
       <c r="M72" s="12" t="s">
         <v>155</v>
       </c>
@@ -23552,10 +23387,10 @@
         <v>358</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
@@ -23564,13 +23399,13 @@
         <v>54</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K73" s="6"/>
       <c r="M73" s="12" t="s">
@@ -23589,27 +23424,20 @@
         <v>359</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K74" s="6"/>
+        <v>241</v>
+      </c>
       <c r="M74" s="12" t="s">
         <v>155</v>
       </c>
@@ -23626,20 +23454,27 @@
         <v>360</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="I75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K75" s="6"/>
       <c r="M75" s="12" t="s">
         <v>155</v>
       </c>
@@ -23656,27 +23491,25 @@
         <v>361</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K76" s="6"/>
+        <v>232</v>
+      </c>
+      <c r="K76" s="2"/>
       <c r="M76" s="12" t="s">
         <v>155</v>
       </c>
@@ -23693,25 +23526,20 @@
         <v>362</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K77" s="2"/>
+        <v>447</v>
+      </c>
       <c r="M77" s="12" t="s">
         <v>155</v>
       </c>
@@ -23728,20 +23556,27 @@
         <v>363</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>447</v>
       </c>
+      <c r="I78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K78" s="6"/>
       <c r="M78" s="12" t="s">
         <v>155</v>
       </c>
@@ -23764,19 +23599,17 @@
         <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="K79" s="6"/>
       <c r="M79" s="12" t="s">
@@ -23795,25 +23628,26 @@
         <v>365</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I80" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J80" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K80" s="6"/>
+        <v>456</v>
+      </c>
       <c r="M80" s="12" t="s">
         <v>155</v>
       </c>
@@ -23830,32 +23664,26 @@
         <v>366</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="M81" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" customFormat="1">
       <c r="A82" s="2" t="s">
         <v>197</v>
       </c>
@@ -23865,27 +23693,33 @@
       <c r="C82" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>20</v>
+      <c r="D82" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="M82" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O82" s="4"/>
-    </row>
-    <row r="83" spans="1:15" customFormat="1">
+        <v>18</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="2" t="s">
         <v>197</v>
       </c>
@@ -23895,31 +23729,31 @@
       <c r="C83" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>417</v>
+      <c r="D83" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>418</v>
+        <v>29</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>18</v>
+        <v>453</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O83" s="4"/>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2" t="s">
@@ -23932,32 +23766,26 @@
         <v>369</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="M84" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" customFormat="1">
       <c r="A85" s="2" t="s">
         <v>197</v>
       </c>
@@ -23967,25 +23795,31 @@
       <c r="C85" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>20</v>
+      <c r="D85" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="M85" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O85" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2" t="s">
@@ -23997,25 +23831,27 @@
       <c r="C86" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>417</v>
+      <c r="D86" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>418</v>
+        <v>29</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K86" s="2"/>
+        <v>456</v>
+      </c>
       <c r="M86" s="12" t="s">
         <v>155</v>
       </c>
@@ -24032,32 +23868,26 @@
         <v>372</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="M87" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" customFormat="1">
       <c r="A88" s="2" t="s">
         <v>197</v>
       </c>
@@ -24067,27 +23897,33 @@
       <c r="C88" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>20</v>
+      <c r="D88" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="M88" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O88" s="4"/>
-    </row>
-    <row r="89" spans="1:15" customFormat="1">
+        <v>18</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="2" t="s">
         <v>197</v>
       </c>
@@ -24097,31 +23933,31 @@
       <c r="C89" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>417</v>
+      <c r="D89" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>418</v>
+        <v>29</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O89" s="4"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2" t="s">
@@ -24134,25 +23970,19 @@
         <v>375</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="M90" s="12" t="s">
         <v>155</v>
@@ -24170,20 +24000,27 @@
         <v>376</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="I91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K91" s="6"/>
       <c r="M91" s="12" t="s">
         <v>155</v>
       </c>
@@ -24199,34 +24036,31 @@
       <c r="C92" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="D92" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>54</v>
+      <c r="G92" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K92" s="6"/>
-      <c r="M92" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="M92" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O92" s="4"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" customFormat="1">
       <c r="A93" s="2" t="s">
         <v>197</v>
       </c>
@@ -24237,30 +24071,32 @@
         <v>378</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>249</v>
+        <v>470</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>231</v>
+        <v>470</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I93" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J93" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="1:15" customFormat="1">
+        <v>460</v>
+      </c>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="2" t="s">
         <v>197</v>
       </c>
@@ -24270,31 +24106,31 @@
       <c r="C94" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>417</v>
+      <c r="D94" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>418</v>
+        <v>29</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>18</v>
+        <v>453</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M94" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O94" s="4"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2" t="s">
@@ -24307,32 +24143,26 @@
         <v>380</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="M95" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O95" s="4"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" customFormat="1">
       <c r="A96" s="2" t="s">
         <v>197</v>
       </c>
@@ -24342,27 +24172,33 @@
       <c r="C96" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>20</v>
+      <c r="D96" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="M96" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="1:15" customFormat="1">
+        <v>18</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="2" t="s">
         <v>197</v>
       </c>
@@ -24372,31 +24208,31 @@
       <c r="C97" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>417</v>
+      <c r="D97" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>418</v>
+        <v>29</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>18</v>
+        <v>453</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O97" s="4"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="2" t="s">
@@ -24409,32 +24245,26 @@
         <v>383</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="M98" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" customFormat="1">
       <c r="A99" s="2" t="s">
         <v>197</v>
       </c>
@@ -24444,25 +24274,31 @@
       <c r="C99" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>20</v>
+      <c r="D99" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="M99" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O99" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="2" t="s">
@@ -24475,24 +24311,26 @@
         <v>385</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>418</v>
+        <v>133</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K100" s="2"/>
+        <v>458</v>
+      </c>
       <c r="M100" s="12" t="s">
         <v>155</v>
       </c>
@@ -24508,26 +24346,20 @@
       <c r="C101" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>28</v>
+      <c r="D101" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>457</v>
+        <v>17</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="M101" s="12" t="s">
         <v>155</v>
@@ -24544,27 +24376,31 @@
       <c r="C102" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>453</v>
-      </c>
+      <c r="D102" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K102" s="2"/>
       <c r="M102" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O102" s="4"/>
     </row>
-    <row r="103" spans="1:15" customFormat="1">
+    <row r="103" spans="1:15">
       <c r="A103" s="2" t="s">
         <v>197</v>
       </c>
@@ -24575,30 +24411,31 @@
         <v>388</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>471</v>
+        <v>136</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>417</v>
+        <v>137</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="K103" s="6"/>
+      <c r="M103" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O103" s="4"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="2" t="s">
@@ -24610,26 +24447,23 @@
       <c r="C104" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>28</v>
+      <c r="D104" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>55</v>
+        <v>231</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>457</v>
+        <v>232</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>155</v>
@@ -24646,21 +24480,25 @@
       <c r="C105" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>453</v>
-      </c>
+      <c r="D105" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K105" s="2"/>
       <c r="M105" s="12" t="s">
         <v>155</v>
       </c>
@@ -24676,26 +24514,28 @@
       <c r="C106" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>418</v>
+      <c r="D106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="K106" s="2"/>
-      <c r="M106" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="M106" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O106" s="4"/>
@@ -24710,28 +24550,22 @@
       <c r="C107" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>133</v>
+      <c r="D107" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="M107" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M107" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O107" s="4"/>
@@ -24747,21 +24581,25 @@
         <v>393</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>134</v>
+        <v>470</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="M108" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K108" s="2"/>
+      <c r="M108" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O108" s="4"/>
@@ -24776,26 +24614,22 @@
       <c r="C109" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K109" s="2"/>
-      <c r="M109" s="12" t="s">
+      <c r="D109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="M109" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O109" s="4"/>
@@ -24810,11 +24644,11 @@
       <c r="C110" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>137</v>
+      <c r="D110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>20</v>
@@ -24822,17 +24656,17 @@
       <c r="G110" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H110" s="5" t="s">
-        <v>132</v>
+      <c r="H110" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="K110" s="6"/>
-      <c r="M110" s="12" t="s">
+      <c r="M110" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O110" s="4"/>
@@ -24848,24 +24682,24 @@
         <v>396</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>134</v>
+        <v>470</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>132</v>
+        <v>470</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M111" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="M111" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O111" s="4"/>
@@ -24881,24 +24715,26 @@
         <v>397</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>418</v>
+        <v>162</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="K112" s="2"/>
+        <v>458</v>
+      </c>
       <c r="M112" s="12" t="s">
         <v>155</v>
       </c>
@@ -24914,28 +24750,22 @@
       <c r="C113" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>28</v>
+      <c r="D113" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="M113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M113" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O113" s="4"/>
@@ -24950,27 +24780,31 @@
       <c r="C114" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="M114" s="2" t="s">
+      <c r="D114" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K114" s="2"/>
+      <c r="M114" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O114" s="4"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" ht="14.5" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>197</v>
       </c>
@@ -24981,25 +24815,28 @@
         <v>400</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>471</v>
+        <v>165</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>418</v>
+        <v>166</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K115" s="2"/>
-      <c r="M115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K115" s="6"/>
+      <c r="M115" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O115" s="4"/>
@@ -25014,22 +24851,25 @@
       <c r="C116" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>102</v>
+      <c r="D116" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="M116" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M116" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O116" s="4"/>
@@ -25044,29 +24884,26 @@
       <c r="C117" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>479</v>
+      <c r="D117" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K117" s="6"/>
-      <c r="M117" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K117" s="2"/>
+      <c r="M117" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O117" s="4"/>
@@ -25082,24 +24919,27 @@
         <v>403</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>418</v>
+        <v>149</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="M118" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M118" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O118" s="4"/>
@@ -25115,25 +24955,19 @@
         <v>449</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>28</v>
+        <v>150</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>459</v>
+        <v>148</v>
       </c>
       <c r="M119" s="12" t="s">
         <v>155</v>
@@ -25151,20 +24985,24 @@
         <v>404</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>163</v>
+        <v>470</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="K120" s="2"/>
       <c r="M120" s="12" t="s">
         <v>155</v>
       </c>
@@ -25181,30 +25019,32 @@
         <v>405</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>418</v>
+        <v>149</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K121" s="2"/>
+        <v>458</v>
+      </c>
       <c r="M121" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:15" ht="14.5" customHeight="1">
+    <row r="122" spans="1:15">
       <c r="A122" s="2" t="s">
         <v>197</v>
       </c>
@@ -25215,27 +25055,24 @@
         <v>450</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>165</v>
+        <v>470</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>145</v>
+        <v>470</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K122" s="6"/>
+        <v>459</v>
+      </c>
+      <c r="K122" s="2"/>
       <c r="M122" s="12" t="s">
         <v>155</v>
       </c>
@@ -25252,22 +25089,25 @@
         <v>451</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>135</v>
+        <v>184</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>232</v>
+        <v>458</v>
       </c>
       <c r="M123" s="12" t="s">
         <v>155</v>
@@ -25285,24 +25125,20 @@
         <v>406</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>471</v>
+        <v>185</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K124" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="M124" s="12" t="s">
         <v>155</v>
       </c>
@@ -25319,26 +25155,24 @@
         <v>407</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>148</v>
+        <v>470</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="K125" s="2"/>
       <c r="M125" s="12" t="s">
         <v>155</v>
       </c>
@@ -25355,19 +25189,25 @@
         <v>408</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>151</v>
+        <v>184</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>148</v>
+        <v>207</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="M126" s="12" t="s">
         <v>155</v>
@@ -25382,27 +25222,23 @@
         <v>60</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>471</v>
+        <v>185</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="K127" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="M127" s="12" t="s">
         <v>155</v>
       </c>
@@ -25416,10 +25252,10 @@
         <v>60</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>149</v>
+        <v>502</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>28</v>
@@ -25431,231 +25267,227 @@
         <v>29</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M128" s="12" t="s">
         <v>155</v>
       </c>
       <c r="O128" s="4"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:13">
       <c r="A129" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>418</v>
+        <v>503</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K129" s="2"/>
-      <c r="M129" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O129" s="4"/>
-    </row>
-    <row r="130" spans="1:15">
+        <v>457</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>184</v>
+        <v>504</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="M130" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O130" s="4"/>
-    </row>
-    <row r="131" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>186</v>
+        <v>505</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="M131" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O131" s="4"/>
-    </row>
-    <row r="132" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>418</v>
+        <v>506</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="K132" s="2"/>
-      <c r="M132" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O132" s="4"/>
-    </row>
-    <row r="133" spans="1:15">
+        <v>457</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>184</v>
+        <v>507</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>28</v>
+        <v>519</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="M133" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O133" s="4"/>
-    </row>
-    <row r="134" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>186</v>
+        <v>508</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M134" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O134" s="4"/>
-    </row>
-    <row r="135" spans="1:15">
+        <v>417</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>36</v>
+        <v>521</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>28</v>
@@ -25667,95 +25499,94 @@
         <v>29</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>30</v>
+        <v>522</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="M135" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O135" s="4"/>
-    </row>
-    <row r="136" spans="1:15">
+        <v>457</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>36</v>
+        <v>523</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>28</v>
+        <v>524</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="M136" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:13">
       <c r="A137" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>37</v>
+        <v>525</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>30</v>
+        <v>526</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:13">
       <c r="A138" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>39</v>
+        <v>527</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>28</v>
@@ -25767,7 +25598,7 @@
         <v>29</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>55</v>
@@ -25779,56 +25610,54 @@
         <v>298</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:13">
       <c r="A139" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>28</v>
+        <v>520</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>519</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H139" s="5"/>
       <c r="I139" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M139" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:13">
       <c r="A140" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>20</v>
@@ -25837,118 +25666,125 @@
         <v>17</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:13">
       <c r="A141" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>522</v>
+      <c r="D141" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H141" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="I141" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K141" s="6"/>
       <c r="M141" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:13">
       <c r="A142" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>29</v>
+      <c r="D142" t="s">
+        <v>532</v>
+      </c>
+      <c r="E142" t="s">
+        <v>533</v>
+      </c>
+      <c r="F142" t="s">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s">
+        <v>231</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="I142"/>
       <c r="J142" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+        <v>232</v>
+      </c>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>412</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>525</v>
+        <v>470</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>524</v>
+        <v>417</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H143" s="5"/>
+      <c r="I143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="M143" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:13">
       <c r="A144" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>527</v>
@@ -25963,201 +25799,205 @@
         <v>29</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M144" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:15">
       <c r="A145" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>28</v>
+        <v>549</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K145" s="6"/>
       <c r="M145" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:15">
       <c r="A146" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H146" s="5"/>
-      <c r="I146" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="D146" t="s">
+        <v>532</v>
+      </c>
+      <c r="E146" t="s">
+        <v>533</v>
+      </c>
+      <c r="F146" t="s">
+        <v>88</v>
+      </c>
+      <c r="G146" t="s">
+        <v>231</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="I146"/>
       <c r="J146" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
+        <v>232</v>
+      </c>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>530</v>
+        <v>417</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H147" s="5"/>
+      <c r="I147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="M147" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:15">
       <c r="A148" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>533</v>
+        <v>552</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K148" s="6"/>
+        <v>457</v>
+      </c>
       <c r="M148" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:15">
       <c r="A149" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D149" t="s">
-        <v>534</v>
-      </c>
-      <c r="E149" t="s">
-        <v>535</v>
-      </c>
-      <c r="F149" t="s">
-        <v>88</v>
-      </c>
-      <c r="G149" t="s">
-        <v>231</v>
+        <v>553</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="I149"/>
-      <c r="J149" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K149"/>
-      <c r="L149"/>
-      <c r="M149" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
+        <v>537</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K149" s="2"/>
+      <c r="M149" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>417</v>
@@ -26170,166 +26010,164 @@
         <v>55</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M150" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:15">
       <c r="A151" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>28</v>
+        <v>555</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K151" s="2"/>
       <c r="M151" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:15">
       <c r="A152" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>538</v>
+        <v>556</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>536</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H152" s="5"/>
       <c r="I152" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K152" s="6"/>
+        <v>459</v>
+      </c>
       <c r="M152" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:15">
       <c r="A153" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D153" t="s">
-        <v>534</v>
-      </c>
-      <c r="E153" t="s">
-        <v>535</v>
-      </c>
-      <c r="F153" t="s">
-        <v>88</v>
-      </c>
-      <c r="G153" t="s">
-        <v>231</v>
+        <v>557</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I153"/>
+        <v>545</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J153" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K153"/>
-      <c r="L153"/>
-      <c r="M153" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
+        <v>457</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>522</v>
+        <v>558</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H154" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="I154" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K154" s="2"/>
       <c r="M154" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:15">
       <c r="A155" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>20</v>
@@ -26338,168 +26176,166 @@
         <v>29</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>539</v>
+        <v>30</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="2" t="s">
-        <v>197</v>
-      </c>
+    <row r="156" spans="1:15">
       <c r="B156" s="5" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>541</v>
+        <v>560</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>539</v>
+        <v>120</v>
       </c>
       <c r="I156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K156" s="2"/>
+      <c r="M156" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O156" s="4"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="B157" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I157" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K156" s="2"/>
-      <c r="M156" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H157" s="5"/>
-      <c r="I157" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J157" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="M157" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K157" s="2"/>
+      <c r="M157" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O157" s="4"/>
+    </row>
+    <row r="158" spans="1:15">
       <c r="B158" s="5" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>543</v>
+        <v>573</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>545</v>
+        <v>29</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>62</v>
+        <v>458</v>
       </c>
       <c r="K158" s="2"/>
-      <c r="M158" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="M158" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O158" s="4"/>
+    </row>
+    <row r="159" spans="1:15">
       <c r="B159" s="5" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>471</v>
+        <v>173</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>522</v>
+        <v>174</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H159" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="I159" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="M159" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K159" s="2"/>
+      <c r="M159" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O159" s="4"/>
+    </row>
+    <row r="160" spans="1:15">
       <c r="B160" s="5" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>546</v>
+        <v>575</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>20</v>
@@ -26508,7 +26344,7 @@
         <v>29</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>547</v>
+        <v>125</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>55</v>
@@ -26516,834 +26352,558 @@
       <c r="J160" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="M160" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="K160" s="2"/>
+      <c r="M160" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O160" s="4"/>
+    </row>
+    <row r="161" spans="2:15">
       <c r="B161" s="5" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>549</v>
+        <v>576</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>547</v>
+        <v>127</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="K161" s="2"/>
-      <c r="M161" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="M161" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O161" s="4"/>
+    </row>
+    <row r="162" spans="2:15">
       <c r="B162" s="5" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="M162" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="K162" s="2"/>
+      <c r="M162" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O162" s="4"/>
+    </row>
+    <row r="163" spans="2:15">
       <c r="B163" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>459</v>
+        <v>18</v>
       </c>
       <c r="K163" s="2"/>
-      <c r="M163" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="1:15">
-      <c r="B164" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J164" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K164" s="2"/>
-      <c r="M164" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O164" s="4"/>
-    </row>
-    <row r="165" spans="1:15">
-      <c r="B165" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J165" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K165" s="2"/>
-      <c r="M165" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O165" s="4"/>
-    </row>
-    <row r="166" spans="1:15">
-      <c r="B166" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J166" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K166" s="2"/>
-      <c r="M166" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O166" s="4"/>
-    </row>
-    <row r="167" spans="1:15">
-      <c r="B167" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K167" s="2"/>
-      <c r="M167" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O167" s="4"/>
-    </row>
-    <row r="168" spans="1:15">
-      <c r="B168" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J168" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K168" s="2"/>
-      <c r="M168" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O168" s="4"/>
-    </row>
-    <row r="169" spans="1:15">
-      <c r="B169" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J169" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K169" s="2"/>
-      <c r="M169" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O169" s="4"/>
-    </row>
-    <row r="170" spans="1:15">
-      <c r="B170" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K170" s="2"/>
-      <c r="O170" s="4"/>
-    </row>
-    <row r="171" spans="1:15">
-      <c r="D171" s="5"/>
+    <row r="164" spans="2:15">
+      <c r="D164" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="H14">
-    <cfRule type="duplicateValues" dxfId="261" priority="1531"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1555"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="duplicateValues" dxfId="260" priority="1459"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1483"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="259" priority="1428"/>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="duplicateValues" dxfId="243" priority="1452"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="duplicateValues" dxfId="258" priority="1404"/>
+  <conditionalFormatting sqref="H123">
+    <cfRule type="duplicateValues" dxfId="242" priority="1428"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H125">
+    <cfRule type="duplicateValues" dxfId="241" priority="1311"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="240" priority="1304"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="duplicateValues" dxfId="239" priority="1303"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="duplicateValues" dxfId="238" priority="1184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
+    <cfRule type="duplicateValues" dxfId="237" priority="1180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="duplicateValues" dxfId="236" priority="1178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H120">
+    <cfRule type="duplicateValues" dxfId="235" priority="1161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H126">
+    <cfRule type="duplicateValues" dxfId="234" priority="1114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="duplicateValues" dxfId="233" priority="1112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="232" priority="1107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="231" priority="1108"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="1109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="duplicateValues" dxfId="229" priority="1104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="duplicateValues" dxfId="228" priority="1105"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H121">
+    <cfRule type="duplicateValues" dxfId="226" priority="1098"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H121">
+    <cfRule type="duplicateValues" dxfId="225" priority="1099"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="1100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="duplicateValues" dxfId="223" priority="1020"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76">
+    <cfRule type="duplicateValues" dxfId="222" priority="1001"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="221" priority="998"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="220" priority="999"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="1000"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="218" priority="995"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="217" priority="996"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="997"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="215" priority="992"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="214" priority="993"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="994"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="duplicateValues" dxfId="212" priority="989"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="duplicateValues" dxfId="211" priority="990"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="991"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122">
+    <cfRule type="duplicateValues" dxfId="209" priority="982"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="208" priority="780"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="duplicateValues" dxfId="207" priority="774"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="duplicateValues" dxfId="206" priority="775"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="776"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105">
+    <cfRule type="duplicateValues" dxfId="204" priority="633"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="duplicateValues" dxfId="203" priority="631"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="duplicateValues" dxfId="202" priority="413"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102">
+    <cfRule type="duplicateValues" dxfId="201" priority="412"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H112">
+    <cfRule type="duplicateValues" dxfId="200" priority="409"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="duplicateValues" dxfId="199" priority="408"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H111">
+    <cfRule type="duplicateValues" dxfId="198" priority="401"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H111">
+    <cfRule type="duplicateValues" dxfId="197" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="403"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="195" priority="371"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="194" priority="367"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="193" priority="364"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="192" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="366"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="190" priority="361"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="189" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="363"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="duplicateValues" dxfId="187" priority="360"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="186" priority="356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="185" priority="357"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="358"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="duplicateValues" dxfId="183" priority="355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="duplicateValues" dxfId="182" priority="359"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="181" priority="276"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="180" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="278"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="178" priority="270"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="177" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="272"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="duplicateValues" dxfId="175" priority="252"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="duplicateValues" dxfId="174" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="duplicateValues" dxfId="172" priority="249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="duplicateValues" dxfId="171" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92">
+    <cfRule type="duplicateValues" dxfId="169" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="duplicateValues" dxfId="168" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="duplicateValues" dxfId="167" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="duplicateValues" dxfId="166" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="164" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="163" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="duplicateValues" dxfId="161" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="160" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="159" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="158" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="duplicateValues" dxfId="157" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="duplicateValues" dxfId="156" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="duplicateValues" dxfId="155" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="duplicateValues" dxfId="154" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="duplicateValues" dxfId="153" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="duplicateValues" dxfId="151" priority="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="duplicateValues" dxfId="150" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="duplicateValues" dxfId="148" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="147" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="146" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="145" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="duplicateValues" dxfId="143" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="duplicateValues" dxfId="142" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="141" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="duplicateValues" dxfId="140" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="duplicateValues" dxfId="139" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="duplicateValues" dxfId="138" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="duplicateValues" dxfId="137" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="duplicateValues" dxfId="135" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="duplicateValues" dxfId="134" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="duplicateValues" dxfId="132" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="duplicateValues" dxfId="131" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="duplicateValues" dxfId="130" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="duplicateValues" dxfId="129" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="duplicateValues" dxfId="128" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H134">
+    <cfRule type="duplicateValues" dxfId="127" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H134">
+    <cfRule type="duplicateValues" dxfId="126" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J142">
+    <cfRule type="duplicateValues" dxfId="124" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H139">
+    <cfRule type="duplicateValues" dxfId="123" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H139">
+    <cfRule type="duplicateValues" dxfId="122" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H150">
+    <cfRule type="duplicateValues" dxfId="120" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H150">
+    <cfRule type="duplicateValues" dxfId="119" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H143">
+    <cfRule type="duplicateValues" dxfId="117" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H143">
+    <cfRule type="duplicateValues" dxfId="116" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J146">
+    <cfRule type="duplicateValues" dxfId="114" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H147">
+    <cfRule type="duplicateValues" dxfId="113" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H147">
+    <cfRule type="duplicateValues" dxfId="112" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H152">
+    <cfRule type="duplicateValues" dxfId="110" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H152">
+    <cfRule type="duplicateValues" dxfId="109" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H155">
+    <cfRule type="duplicateValues" dxfId="107" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H153">
+    <cfRule type="duplicateValues" dxfId="106" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H153">
+    <cfRule type="duplicateValues" dxfId="105" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154">
+    <cfRule type="duplicateValues" dxfId="103" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154">
+    <cfRule type="duplicateValues" dxfId="102" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H137">
+    <cfRule type="duplicateValues" dxfId="100" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H137">
+    <cfRule type="duplicateValues" dxfId="99" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136">
+    <cfRule type="duplicateValues" dxfId="97" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136">
+    <cfRule type="duplicateValues" dxfId="96" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H135">
+    <cfRule type="duplicateValues" dxfId="94" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H135">
+    <cfRule type="duplicateValues" dxfId="93" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H133">
+    <cfRule type="duplicateValues" dxfId="91" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H133">
+    <cfRule type="duplicateValues" dxfId="90" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132">
-    <cfRule type="duplicateValues" dxfId="257" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="256" priority="1280"/>
+  <conditionalFormatting sqref="H132">
+    <cfRule type="duplicateValues" dxfId="87" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="255" priority="1279"/>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="duplicateValues" dxfId="85" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="254" priority="1160"/>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="duplicateValues" dxfId="84" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="duplicateValues" dxfId="253" priority="1156"/>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="duplicateValues" dxfId="82" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="duplicateValues" dxfId="252" priority="1154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
-    <cfRule type="duplicateValues" dxfId="251" priority="1139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
-    <cfRule type="duplicateValues" dxfId="250" priority="1137"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H133">
-    <cfRule type="duplicateValues" dxfId="249" priority="1090"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H135">
-    <cfRule type="duplicateValues" dxfId="248" priority="1088"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="duplicateValues" dxfId="247" priority="1083"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="duplicateValues" dxfId="246" priority="1084"/>
-    <cfRule type="duplicateValues" dxfId="245" priority="1085"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="duplicateValues" dxfId="244" priority="1080"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="duplicateValues" dxfId="243" priority="1081"/>
-    <cfRule type="duplicateValues" dxfId="242" priority="1082"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="duplicateValues" dxfId="241" priority="1079"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H128">
-    <cfRule type="duplicateValues" dxfId="240" priority="1074"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H128">
-    <cfRule type="duplicateValues" dxfId="239" priority="1075"/>
-    <cfRule type="duplicateValues" dxfId="238" priority="1076"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="237" priority="996"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="duplicateValues" dxfId="236" priority="977"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="235" priority="974"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="234" priority="975"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="976"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="232" priority="971"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="231" priority="972"/>
-    <cfRule type="duplicateValues" dxfId="230" priority="973"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="229" priority="968"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="228" priority="969"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="970"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76">
-    <cfRule type="duplicateValues" dxfId="226" priority="965"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76">
-    <cfRule type="duplicateValues" dxfId="225" priority="966"/>
-    <cfRule type="duplicateValues" dxfId="224" priority="967"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="duplicateValues" dxfId="223" priority="958"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="222" priority="756"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="221" priority="750"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="220" priority="751"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="752"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
-    <cfRule type="duplicateValues" dxfId="218" priority="609"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
-    <cfRule type="duplicateValues" dxfId="217" priority="607"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H106">
-    <cfRule type="duplicateValues" dxfId="216" priority="595"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
-    <cfRule type="duplicateValues" dxfId="215" priority="389"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
-    <cfRule type="duplicateValues" dxfId="214" priority="388"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H119">
-    <cfRule type="duplicateValues" dxfId="213" priority="385"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
-    <cfRule type="duplicateValues" dxfId="212" priority="384"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
-    <cfRule type="duplicateValues" dxfId="211" priority="377"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
-    <cfRule type="duplicateValues" dxfId="210" priority="378"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="379"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="208" priority="347"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="207" priority="343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="206" priority="340"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="205" priority="341"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="342"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="203" priority="337"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="202" priority="338"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="339"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="200" priority="336"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="199" priority="332"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="198" priority="333"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="334"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="196" priority="331"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="195" priority="335"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="duplicateValues" dxfId="194" priority="252"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="duplicateValues" dxfId="193" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="191" priority="246"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="190" priority="247"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="248"/>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="duplicateValues" dxfId="81" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="duplicateValues" dxfId="188" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="duplicateValues" dxfId="187" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="185" priority="239"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="184" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="241"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="duplicateValues" dxfId="182" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="duplicateValues" dxfId="181" priority="229"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="duplicateValues" dxfId="179" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="duplicateValues" dxfId="178" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="duplicateValues" dxfId="176" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="duplicateValues" dxfId="175" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="223"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="duplicateValues" dxfId="173" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="duplicateValues" dxfId="172" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J93">
-    <cfRule type="duplicateValues" dxfId="170" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H101">
-    <cfRule type="duplicateValues" dxfId="169" priority="212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H101">
-    <cfRule type="duplicateValues" dxfId="168" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="166" priority="209"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="165" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
-    <cfRule type="duplicateValues" dxfId="163" priority="205"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
-    <cfRule type="duplicateValues" dxfId="162" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="207"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
-    <cfRule type="duplicateValues" dxfId="160" priority="202"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
-    <cfRule type="duplicateValues" dxfId="159" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="204"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="157" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="156" priority="198"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="155" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="153" priority="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="152" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="150" priority="190"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="duplicateValues" dxfId="149" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="148" priority="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="147" priority="187"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="duplicateValues" dxfId="146" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="145" priority="185"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="144" priority="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="143" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="142" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="140" priority="174"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="139" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="176"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="137" priority="192"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="136" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="135" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="134" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="132" priority="193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="131" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="duplicateValues" dxfId="130" priority="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="129" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="duplicateValues" dxfId="128" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="127" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="126" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="duplicateValues" dxfId="125" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="123" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="122" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="duplicateValues" dxfId="120" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="119" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="118" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
-    <cfRule type="duplicateValues" dxfId="117" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H136">
-    <cfRule type="duplicateValues" dxfId="116" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H141">
-    <cfRule type="duplicateValues" dxfId="115" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H141">
-    <cfRule type="duplicateValues" dxfId="114" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149">
-    <cfRule type="duplicateValues" dxfId="112" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H146">
-    <cfRule type="duplicateValues" dxfId="111" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H146">
-    <cfRule type="duplicateValues" dxfId="110" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H157">
-    <cfRule type="duplicateValues" dxfId="108" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H157">
-    <cfRule type="duplicateValues" dxfId="107" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H150">
-    <cfRule type="duplicateValues" dxfId="105" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H150">
-    <cfRule type="duplicateValues" dxfId="104" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J153">
-    <cfRule type="duplicateValues" dxfId="102" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H154">
-    <cfRule type="duplicateValues" dxfId="101" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H154">
-    <cfRule type="duplicateValues" dxfId="100" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H159">
-    <cfRule type="duplicateValues" dxfId="98" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H159">
-    <cfRule type="duplicateValues" dxfId="97" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H162">
-    <cfRule type="duplicateValues" dxfId="95" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H160">
-    <cfRule type="duplicateValues" dxfId="94" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H160">
-    <cfRule type="duplicateValues" dxfId="93" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H161">
-    <cfRule type="duplicateValues" dxfId="91" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H161">
-    <cfRule type="duplicateValues" dxfId="90" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H144">
-    <cfRule type="duplicateValues" dxfId="88" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H144">
-    <cfRule type="duplicateValues" dxfId="87" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H143">
-    <cfRule type="duplicateValues" dxfId="85" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H143">
-    <cfRule type="duplicateValues" dxfId="84" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H142">
-    <cfRule type="duplicateValues" dxfId="82" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H142">
-    <cfRule type="duplicateValues" dxfId="81" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H140">
-    <cfRule type="duplicateValues" dxfId="79" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H140">
-    <cfRule type="duplicateValues" dxfId="78" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H139">
+  <conditionalFormatting sqref="H97">
     <cfRule type="duplicateValues" dxfId="76" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H139">
+  <conditionalFormatting sqref="H97">
     <cfRule type="duplicateValues" dxfId="75" priority="5"/>
     <cfRule type="duplicateValues" dxfId="74" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H138">
+  <conditionalFormatting sqref="H98">
     <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H138">
+  <conditionalFormatting sqref="H98">
     <cfRule type="duplicateValues" dxfId="72" priority="2"/>
     <cfRule type="duplicateValues" dxfId="71" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G147 F153:G1048576 F148 F152 F149:G151" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F146:G1048576 F141 F145 F142:G144 F1:G140" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation showInputMessage="1" sqref="I2:I3 I8" xr:uid="{D8F277C8-3CD4-46EB-AED7-38859E989603}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27355,10 +26915,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView topLeftCell="A116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -27546,7 +27106,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -27588,7 +27148,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
@@ -28218,7 +27778,7 @@
         <v>27</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>455</v>
+        <v>579</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>20</v>
@@ -28414,7 +27974,7 @@
         <v>27</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>20</v>
@@ -28932,7 +28492,7 @@
         <v>27</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>20</v>
@@ -28954,13 +28514,13 @@
     </row>
     <row r="114" spans="1:4" s="9" customFormat="1">
       <c r="A114" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>20</v>
@@ -28968,13 +28528,13 @@
     </row>
     <row r="115" spans="1:4" s="9" customFormat="1">
       <c r="A115" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>20</v>
@@ -28988,7 +28548,7 @@
         <v>27</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>20</v>
@@ -28996,13 +28556,13 @@
     </row>
     <row r="117" spans="1:4" s="9" customFormat="1">
       <c r="A117" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>476</v>
+      <c r="C117" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>20</v>
@@ -29010,13 +28570,13 @@
     </row>
     <row r="118" spans="1:4" s="9" customFormat="1">
       <c r="A118" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>20</v>
@@ -29024,13 +28584,13 @@
     </row>
     <row r="119" spans="1:4" s="9" customFormat="1">
       <c r="A119" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>20</v>
@@ -29038,13 +28598,13 @@
     </row>
     <row r="121" spans="1:4" s="9" customFormat="1">
       <c r="A121" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>20</v>
@@ -29052,13 +28612,13 @@
     </row>
     <row r="122" spans="1:4" s="9" customFormat="1">
       <c r="A122" s="2" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>20</v>
@@ -29066,13 +28626,13 @@
     </row>
     <row r="123" spans="1:4" s="9" customFormat="1">
       <c r="A123" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>20</v>
@@ -29080,13 +28640,13 @@
     </row>
     <row r="124" spans="1:4" s="9" customFormat="1">
       <c r="A124" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>20</v>
@@ -29094,13 +28654,13 @@
     </row>
     <row r="125" spans="1:4" s="9" customFormat="1">
       <c r="A125" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>20</v>
@@ -29108,13 +28668,13 @@
     </row>
     <row r="126" spans="1:4" s="9" customFormat="1">
       <c r="A126" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>20</v>
@@ -29122,13 +28682,13 @@
     </row>
     <row r="127" spans="1:4" s="9" customFormat="1">
       <c r="A127" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>20</v>
@@ -29136,7 +28696,7 @@
     </row>
     <row r="128" spans="1:4" s="9" customFormat="1">
       <c r="A128" s="2" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>27</v>
@@ -29150,13 +28710,13 @@
     </row>
     <row r="129" spans="1:4" s="9" customFormat="1">
       <c r="A129" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>20</v>
@@ -29164,13 +28724,13 @@
     </row>
     <row r="130" spans="1:4" s="9" customFormat="1">
       <c r="A130" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>20</v>
@@ -29178,7 +28738,7 @@
     </row>
     <row r="131" spans="1:4" s="9" customFormat="1">
       <c r="A131" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>27</v>
@@ -29189,15 +28749,32 @@
       <c r="D131" s="2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="C135" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D9">
     <sortCondition ref="D2:D9"/>
   </sortState>
-  <conditionalFormatting sqref="A120 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A94 A132:A1048576">
+  <conditionalFormatting sqref="A120 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A94 A134:A1048576">
     <cfRule type="duplicateValues" dxfId="70" priority="149"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A94 A132:A1048576">
+  <conditionalFormatting sqref="A120 A71 A57:A61 A2:A34 A41:A52 A74:A75 A77:A80 A83:A90 A94 A134:A1048576">
     <cfRule type="duplicateValues" dxfId="69" priority="152"/>
     <cfRule type="duplicateValues" dxfId="68" priority="153"/>
   </conditionalFormatting>
